--- a/exports/emotion_scores_comparison_id_004_pos.xlsx
+++ b/exports/emotion_scores_comparison_id_004_pos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Hume (Speech-Based)</t>
+          <t>Hume (speech)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NLP Cloud (Text-Based)</t>
+          <t>NLP (text)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Self‑label</t>
         </is>
       </c>
     </row>
@@ -457,10 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.246</v>
+        <v>0.27</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.258</v>
+        <v>0.27</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.129</v>
+        <v>0.14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -496,36 +510,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.164</v>
+        <v>0.18</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Disgust</t>
+          <t>Surprise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.078</v>
+        <v>0.14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Surprise</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
